--- a/Case2_Training.xlsx
+++ b/Case2_Training.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e7a353f30f196a5b/Desktop/Code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e7a353f30f196a5b/Documents/GitHub/Data_Projects/Data-Analysis-Projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA6B4B0B-9B04-42CF-96C2-94F9B2CA7AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{CA6B4B0B-9B04-42CF-96C2-94F9B2CA7AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7C79A0E-C1E9-4AD2-BC3E-9E0463C66621}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0A573FA2-7294-464E-B553-46E0A52E6B90}"/>
   </bookViews>
@@ -1228,11 +1228,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{094BA775-E7D9-4A67-B225-9EC1E013C016}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1253,7 +1252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1286,7 +1285,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1319,7 +1318,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1330,7 +1329,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1341,7 +1340,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1352,7 +1351,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -1363,7 +1362,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -1374,7 +1373,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -1385,7 +1384,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -1396,7 +1395,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -1418,7 +1417,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -1429,7 +1428,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -1440,7 +1439,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -1550,7 +1549,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -1572,7 +1571,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>65</v>
       </c>
@@ -1583,7 +1582,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>67</v>
       </c>
@@ -1594,7 +1593,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>69</v>
       </c>
@@ -1639,15 +1638,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C36" xr:uid="{094BA775-E7D9-4A67-B225-9EC1E013C016}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Binary"/>
-        <filter val="Continuous Numerical"/>
-        <filter val="Date Variable"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:C36" xr:uid="{094BA775-E7D9-4A67-B225-9EC1E013C016}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>